--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3372.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3372.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.233114845876564</v>
+        <v>3.921134471893311</v>
       </c>
       <c r="B1">
-        <v>2.585216673618847</v>
+        <v>2.543084621429443</v>
       </c>
       <c r="C1">
-        <v>4.537278630910464</v>
+        <v>1.869756460189819</v>
       </c>
       <c r="D1">
-        <v>3.094335676164586</v>
+        <v>1.735360026359558</v>
       </c>
       <c r="E1">
-        <v>1.169512220257582</v>
+        <v>1.625322103500366</v>
       </c>
     </row>
   </sheetData>
